--- a/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
+++ b/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -198,9 +198,6 @@
     <t>CLO Description</t>
   </si>
   <si>
-    <t>CLO1</t>
-  </si>
-  <si>
     <t>SessionNo</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Lecturer's Materials link</t>
   </si>
   <si>
-    <t>Offline</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -259,12 +253,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>On-going</t>
   </si>
   <si>
     <t>Name</t>
@@ -421,6 +409,21 @@
   </si>
   <si>
     <t>{{gradingStruture.how_granding_structure}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.clo_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.ClassSessionType.class_session_type_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.SessionCLO.CLO.CLO_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStrutureComponant}}</t>
+  </si>
+  <si>
+    <t>{{gradingStrutureType}}</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1178,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,31 +1291,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1351,13 +1354,13 @@
     </row>
     <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1387,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1410,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1428,73 +1431,73 @@
   <sheetData>
     <row r="1" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="I2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="K2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1510,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,49 +1533,49 @@
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="J1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P1" s="35"/>
     </row>
@@ -1581,44 +1584,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="K2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="L2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="N2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="O2" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
+++ b/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -198,9 +198,6 @@
     <t>CLO Description</t>
   </si>
   <si>
-    <t>CLO1</t>
-  </si>
-  <si>
     <t>SessionNo</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Lecturer's Materials link</t>
   </si>
   <si>
-    <t>Offline</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -259,12 +253,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>On-going</t>
   </si>
   <si>
     <t>Name</t>
@@ -357,9 +345,6 @@
     <t>{{materials.material_edition}}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>{{CLOs.CLO_name}}</t>
   </si>
   <si>
@@ -421,6 +406,33 @@
   </si>
   <si>
     <t>{{gradingStruture.how_granding_structure}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.clo_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_method_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_type_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.no}}</t>
+  </si>
+  <si>
+    <t>{{materials.no}}</t>
+  </si>
+  <si>
+    <t>{{CLOs.no}}</t>
+  </si>
+  <si>
+    <t>{{schedule.class_session_type_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.CLO_name}}</t>
+  </si>
+  <si>
+    <t>{{{{schedule.no}}</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1024,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1178,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1284,35 +1296,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1325,13 +1337,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="17" customWidth="1"/>
     <col min="4" max="7" width="8.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="17" customWidth="1"/>
@@ -1351,13 +1363,13 @@
     </row>
     <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1387,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1406,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1428,73 +1440,73 @@
   <sheetData>
     <row r="1" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1506,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,95 +1542,97 @@
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="J1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
+      <c r="A2" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="K2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="L2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="N2" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="O2" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
+++ b/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
     <sheet name="Materials" sheetId="6" r:id="rId2"/>
     <sheet name="CLO" sheetId="5" r:id="rId3"/>
-    <sheet name="Constructivist Question" sheetId="8" r:id="rId4"/>
-    <sheet name="Schedule" sheetId="7" r:id="rId5"/>
-    <sheet name="Grading structure" sheetId="3" r:id="rId6"/>
-    <sheet name="CLO-PLO Mappings" sheetId="9" r:id="rId7"/>
+    <sheet name="Schedule" sheetId="7" r:id="rId4"/>
+    <sheet name="Grading structure" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -97,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -201,9 +199,6 @@
     <t>SessionNo</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>Sess.</t>
   </si>
   <si>
@@ -253,9 +248,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Assessment Component
@@ -372,9 +364,6 @@
     <t>{{schedule.student_material_link}}</t>
   </si>
   <si>
-    <t>{{lecturer_material_link}}</t>
-  </si>
-  <si>
     <t>{{gradingStruture.grading_weight}}</t>
   </si>
   <si>
@@ -432,7 +421,16 @@
     <t>{{schedule.CLO_name}}</t>
   </si>
   <si>
-    <t>{{{{schedule.no}}</t>
+    <t>Learning Resource</t>
+  </si>
+  <si>
+    <t>{{materials.learning_resource_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.no}}</t>
+  </si>
+  <si>
+    <t>{{schedule.lecturer_material_link}}</t>
   </si>
 </sst>
 </file>
@@ -547,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,12 +615,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1004,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1036,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,8 +1159,8 @@
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>66</v>
+      <c r="C14" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1190,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" activeCellId="1" sqref="K2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1255,7 @@
     <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,37 +1286,43 @@
       <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>80</v>
+      <c r="K2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1363,13 +1361,13 @@
     </row>
     <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1380,133 +1378,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10" style="24" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="27" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="46" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="46" style="27" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" style="27" customWidth="1"/>
-    <col min="13" max="16384" width="42.5703125" style="27"/>
+    <col min="1" max="1" width="6.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="25" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="46" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="46" style="25" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" style="25" customWidth="1"/>
+    <col min="13" max="16384" width="42.5703125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1514,12 +1476,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,98 +1503,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="D1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="35"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>105</v>
+      <c r="A2" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="H2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="K2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="L2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="N2" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="O2" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1643,18 +1605,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
+++ b/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,6 @@
     <t>{{gradingStruture.clo_name}}</t>
   </si>
   <si>
-    <t>{{gradingStruture.assessment_method_name}}</t>
-  </si>
-  <si>
-    <t>{{gradingStruture.assessment_type_name}}</t>
-  </si>
-  <si>
     <t>{{gradingStruture.no}}</t>
   </si>
   <si>
@@ -431,6 +425,12 @@
   </si>
   <si>
     <t>{{schedule.lecturer_material_link}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_component}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_type}}</t>
   </si>
 </sst>
 </file>
@@ -1287,12 +1287,12 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>70</v>
@@ -1322,7 +1322,7 @@
         <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>79</v>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>82</v>
@@ -1468,7 +1468,7 @@
         <v>87</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1480,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>88</v>

--- a/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
+++ b/CurriculumManagementSystemWebAPI/SyllabusExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Pre-requisite</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>{{gradingStruture.assessment_type}}</t>
+  </si>
+  <si>
+    <t>{{pre_requiredText}}</t>
   </si>
 </sst>
 </file>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="12" customFormat="1" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1179,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,10 +1190,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,10 +1212,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,69 +1260,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1353,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1402,73 +1402,73 @@
   <sheetData>
     <row r="1" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1504,97 +1504,97 @@
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
